--- a/Self-Hosted Password Manager/Self-Hosted Password Manager with Linode.xlsx
+++ b/Self-Hosted Password Manager/Self-Hosted Password Manager with Linode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.221\Wiras\Laptop backup\Download stuff\Projects Made by Wafi\Password Manager with Passbolt project @Linode Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Linode Server\Linode-Project\Self-Hosted Password Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F471C6-0E2F-4A6D-BD37-ADB823BE2823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850827F-6777-4850-A4EE-594BEA43FB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CD1A0AF-48DE-48CF-A889-32A4450B4B5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9CD1A0AF-48DE-48CF-A889-32A4450B4B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -613,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -632,6 +632,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,93 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2383,10 +2380,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
+        <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90E986E-0CAD-B956-D295-E4003800C14C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1D70F2-F19F-5C80-C2E3-8DDF85FEB853}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,8 +2391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3863788" y="37508329"/>
-          <a:ext cx="3935506" cy="546847"/>
+          <a:off x="4222376" y="37884847"/>
+          <a:ext cx="3935506" cy="1497106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2763,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BBD57B-C54B-4747-8B2A-240F1FB947C8}">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2782,27 +2779,27 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="H3" s="15" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="H3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -2813,41 +2810,41 @@
       <c r="B5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="24">
         <v>0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="24">
         <v>0</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="21"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="H9" s="17"/>
@@ -2856,101 +2853,101 @@
       <c r="B10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="24">
         <v>7</v>
       </c>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="26"/>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="12">
         <v>0</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="12">
         <v>0</v>
       </c>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="28" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="17"/>
     </row>
     <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="H17" s="31" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="H17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:9" ht="118.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="H18" s="33" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" ht="164.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2981,7 +2978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F860C-F940-4EA7-A20F-F2B3FF3D4C24}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2997,16 +2994,16 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -3049,16 +3046,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
     </row>
     <row r="14" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -3066,12 +3063,12 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3105,8 +3102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEF3A83-BD0E-4F0C-8BBE-FDB4AA913FCF}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3121,16 +3118,16 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -3173,16 +3170,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -3195,29 +3192,29 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="232.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="232.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="392.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="277.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="G19" s="12"/>
+    <row r="19" spans="1:7" ht="294" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" ht="373.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -3233,16 +3230,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
     </row>
     <row r="26" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">

--- a/Self-Hosted Password Manager/Self-Hosted Password Manager with Linode.xlsx
+++ b/Self-Hosted Password Manager/Self-Hosted Password Manager with Linode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Linode Server\Linode-Project\Self-Hosted Password Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850827F-6777-4850-A4EE-594BEA43FB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F927F2DC-5A7D-46A7-B7BB-CAD5147BD34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9CD1A0AF-48DE-48CF-A889-32A4450B4B5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CD1A0AF-48DE-48CF-A889-32A4450B4B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>Click here to go to Github</t>
   </si>
   <si>
-    <t>Raspberry Pi Server Project Description</t>
-  </si>
-  <si>
     <t>&gt; Linode Cloud Account</t>
   </si>
   <si>
@@ -350,6 +347,9 @@
     <t>Using a Passbolt &amp; Linode Cloud Server allows me to build a variety of servers for my own uses and family's needs. Creating a Password Manager server is difficult since many factors must be taken into account, including security, configurations, maintaining updates, uptime/downtime, and so on. As a result, following an extensive research and testing, I developed my own password manager server using my Linode.
 Here are the list of server I made as my aim of this project:
 1.  Creating a secure password manager with Linode server, Passbolt &amp; Docker application.</t>
+  </si>
+  <si>
+    <t>Passbolt Server Project Description</t>
   </si>
 </sst>
 </file>
@@ -659,6 +659,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,24 +712,6 @@
     </xf>
     <xf numFmtId="8" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2760,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BBD57B-C54B-4747-8B2A-240F1FB947C8}">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2802,78 +2802,78 @@
       <c r="E4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>57</v>
+      <c r="H4" s="23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="25"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="25"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="25"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="2:8" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" ht="93.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="24">
-        <v>0</v>
-      </c>
-      <c r="E5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:8" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="20"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="2:8" ht="93.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="24">
+      <c r="D10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="30">
         <v>7</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="20"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="26"/>
-      <c r="H11" s="17"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="32"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>33</v>
@@ -2884,16 +2884,16 @@
       <c r="E12" s="12">
         <v>0</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="H13" s="23"/>
     </row>
     <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2904,21 +2904,21 @@
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="29"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="2:9" ht="118.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="H18" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="H18" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>36</v>
@@ -2927,7 +2927,7 @@
     <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -2938,24 +2938,19 @@
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" ht="164.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="B22" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="H4:H13"/>
     <mergeCell ref="B5:B9"/>
@@ -2966,6 +2961,11 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B18:F18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I18" r:id="rId1" xr:uid="{6B294BFB-031A-4A0E-B3F0-E8C54BC4AF93}"/>
@@ -2978,7 +2978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F860C-F940-4EA7-A20F-F2B3FF3D4C24}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2990,12 +2990,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -3007,47 +3007,47 @@
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -3059,17 +3059,17 @@
     </row>
     <row r="14" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -3102,7 +3102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEF3A83-BD0E-4F0C-8BBE-FDB4AA913FCF}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/Self-Hosted Password Manager/Self-Hosted Password Manager with Linode.xlsx
+++ b/Self-Hosted Password Manager/Self-Hosted Password Manager with Linode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Linode Server\Linode-Project\Self-Hosted Password Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F927F2DC-5A7D-46A7-B7BB-CAD5147BD34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E7FD31-C717-4171-A577-5D75955D4F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CD1A0AF-48DE-48CF-A889-32A4450B4B5E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>In this Tap, shows on how to set up Password Manager with Passbolt</t>
   </si>
@@ -319,15 +319,6 @@
     <t>Step 3: Once done update run "sudo apt update &amp;&amp; apt upgrade" again and the end result should apprear "0 upgraded, 0 newly installed, 0 to remove and 0 not upgraded."</t>
   </si>
   <si>
-    <t>US$5.00</t>
-  </si>
-  <si>
-    <t>&gt; Docker</t>
-  </si>
-  <si>
-    <t>Overall: $7.00</t>
-  </si>
-  <si>
     <t>The project's goal is to create a self-hosted password manager with using cloud server named linode. Why do we want to self-host our own password manager? The answer is firstly we have a full control of all of our password such as password sharing to authorized user, making admin and user groups and can view and edit passwords and many more. Self-hosted password manager made possible with an application called passbolt. Not limited to cloud servers, we can also host our own password in Raspberry pi and even our spare/unused laptops that runs linux. But the best option is cloud server as we can have access anywhere as and when we need our password for login purposes. The reason in using passbolt is that, firstly their security model supports user-owned secret keys and end-to-end encryption. As the website says "Finally, a password manager built for organizations that take their security and privacy seriously. Passbolt is trusted by 15 000 of them worldwide, including F500 companies, the defense industry, universities, startups and many others." We can roughly make use of passbolt and its security to secure our password.
 Source: https://www.passbolt.com/</t>
   </si>
@@ -350,6 +341,18 @@
   </si>
   <si>
     <t>Passbolt Server Project Description</t>
+  </si>
+  <si>
+    <t>US$5.00/Month</t>
+  </si>
+  <si>
+    <t>$7.00/Month</t>
+  </si>
+  <si>
+    <t>&gt; Docker &amp; Passbolt Application</t>
+  </si>
+  <si>
+    <t>Overall: $7.00/Month</t>
   </si>
 </sst>
 </file>
@@ -2760,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BBD57B-C54B-4747-8B2A-240F1FB947C8}">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2769,8 +2772,8 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
     <col min="8" max="8" width="73.77734375" customWidth="1"/>
@@ -2803,7 +2806,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2857,10 +2860,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="30">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="H10" s="23"/>
     </row>
@@ -2871,9 +2874,9 @@
       <c r="E11" s="32"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>33</v>
@@ -2886,12 +2889,12 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="2:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H13" s="23"/>
     </row>
@@ -2911,14 +2914,14 @@
     </row>
     <row r="18" spans="2:9" ht="118.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
       <c r="H18" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>36</v>
@@ -2927,7 +2930,7 @@
     <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -2939,7 +2942,7 @@
     </row>
     <row r="22" spans="2:9" ht="164.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -3020,7 +3023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
